--- a/questions/ServerCommandTableA8.xlsx
+++ b/questions/ServerCommandTableA8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aysva\SimplicityStudio\v5_workspace\ecen5823-assignment8-aysvarya-gopinath\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA05AC-E980-4B92-BB58-D1FC0063AA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7D3E70-E596-4FFE-B128-2881B53CB986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Use this table to help you design your program. Add rows as needed.</t>
   </si>
@@ -115,19 +115,10 @@
     <t>sl_bt_evt_sm_bonded_id</t>
   </si>
   <si>
-    <t>This event is trigerred when a pairing or bonding is successful</t>
-  </si>
-  <si>
     <t>sl_bt_evt_sm_bonding_failed_id</t>
   </si>
   <si>
-    <t>This event is trigerred when a pairing or bonding failed</t>
-  </si>
-  <si>
     <t>The passkey confirm function is called if the external PB0 button press triggers this event.This function is called to accept or reject the passkey displayed</t>
-  </si>
-  <si>
-    <t>Passkey --server</t>
   </si>
   <si>
     <t>sl_bt_sm_configure()</t>
@@ -152,7 +143,91 @@
     <t xml:space="preserve"> This event indicates that a new bonding request is received. This function can be called to accept or reject the bonding</t>
   </si>
   <si>
-    <t>Bonded--Server</t>
+    <t>Display Passkey  and Confirm with PB0--server</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X                             </t>
+  </si>
+  <si>
+    <t>Button Pressed/Released --Server</t>
+  </si>
+  <si>
+    <t>This event is trigerred when a pairing or bonding failed.Set bonding handle to 0</t>
+  </si>
+  <si>
+    <t>This event is trigerred when a pairing or bonding is successful.Set bonding handle to 1</t>
+  </si>
+  <si>
+    <t>displayupdate()</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_server_send_indication()</t>
+  </si>
+  <si>
+    <t>Send indications to the client if the characterictics are enabled</t>
+  </si>
+  <si>
+    <t>sl_bt_legacy_advertiser_generate_data ()</t>
+  </si>
+  <si>
+    <t>sl_bt_legacy_advertiser_start()</t>
+  </si>
+  <si>
+    <t>Delete the bondings and start advertising again</t>
+  </si>
+  <si>
+    <t>refresh the display to avoid charge accumalation</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_set_parameters()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_stop()</t>
+  </si>
+  <si>
+    <t>Stop advertising and set the connection parameters</t>
+  </si>
+  <si>
+    <t>sl_bt_system_get_identity_address()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_create_set()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_set_timing()</t>
+  </si>
+  <si>
+    <t>sl_bt_legacy_advertiser_generate_data()</t>
+  </si>
+  <si>
+    <t>Delete the bondings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create advertising data </t>
+  </si>
+  <si>
+    <t>Start advertising</t>
+  </si>
+  <si>
+    <t>Display BT address and assignment number</t>
+  </si>
+  <si>
+    <t>BLE address</t>
+  </si>
+  <si>
+    <t>Save connection Handle</t>
+  </si>
+  <si>
+    <t>Clear Temperature</t>
+  </si>
+  <si>
+    <t>Clear passkey and action</t>
+  </si>
+  <si>
+    <t>Bonded--Server ;clear passkey  and action</t>
   </si>
 </sst>
 </file>
@@ -242,7 +317,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,8 +549,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,6 +655,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>170233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364787</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A1682B-2037-D7C8-3988-C7E1054A12D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3339830" y="15004914"/>
+          <a:ext cx="8511702" cy="4961107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1651,18 +1790,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="60.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="85" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
@@ -1671,13 +1810,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1737,6 +1876,9 @@
         <v>21</v>
       </c>
       <c r="D6" s="10"/>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="19" t="s">
         <v>10</v>
       </c>
@@ -1746,19 +1888,21 @@
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="45"/>
+      <c r="C8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="46"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1766,7 +1910,10 @@
       <c r="B9" s="4"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -1774,279 +1921,374 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="16"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="22" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="34"/>
+      <c r="A18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="23"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="39"/>
-      <c r="F25" s="32" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="40"/>
+      <c r="F30" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="34"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="33" t="s">
+    <row r="31" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="30" t="s">
+      <c r="C32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35" t="s">
+    <row r="33" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="17" t="s">
+      <c r="F33" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="31" t="s">
-        <v>33</v>
+      <c r="D36" s="22"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="33"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2060,5 +2302,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions/ServerCommandTableA8.xlsx
+++ b/questions/ServerCommandTableA8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aysva\SimplicityStudio\v5_workspace\ecen5823-assignment8-aysvarya-gopinath\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aysva\SimplicityStudio\v5_workspace\ecen5823-assignment9-aysvarya-gopinath\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7D3E70-E596-4FFE-B128-2881B53CB986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B08AD-4912-41A2-81FA-5ECE2122DEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Use this table to help you design your program. Add rows as needed.</t>
   </si>
@@ -149,9 +149,6 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">X                             </t>
-  </si>
-  <si>
     <t>Button Pressed/Released --Server</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Bonded--Server ;clear passkey  and action</t>
+  </si>
+  <si>
+    <t>Bonding failed--Server</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +328,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -543,17 +537,17 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,8 +1786,8 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1877,7 +1871,7 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>10</v>
@@ -1897,10 +1891,10 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="15"/>
@@ -1924,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1933,10 +1927,10 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1945,7 +1939,7 @@
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="30"/>
     </row>
@@ -1955,7 +1949,7 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="30"/>
     </row>
@@ -1965,10 +1959,10 @@
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1995,11 +1989,9 @@
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>41</v>
-      </c>
+      <c r="D17" s="40"/>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>22</v>
@@ -2009,13 +2001,13 @@
       <c r="A18" s="4"/>
       <c r="C18" s="24"/>
       <c r="D18" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2040,9 +2032,7 @@
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="38" t="s">
-        <v>41</v>
-      </c>
+      <c r="D21" s="41"/>
       <c r="E21" s="29" t="s">
         <v>35</v>
       </c>
@@ -2054,23 +2044,23 @@
       <c r="A22" s="27"/>
       <c r="B22" s="33"/>
       <c r="C22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="41"/>
+        <v>65</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="33"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="34"/>
     </row>
@@ -2089,10 +2079,10 @@
       <c r="C25" s="16"/>
       <c r="D25" s="23"/>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2139,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="40"/>
+      <c r="D30" s="38"/>
       <c r="F30" s="32" t="s">
         <v>26</v>
       </c>
@@ -2149,10 +2139,10 @@
       <c r="C31" s="31"/>
       <c r="D31" s="34"/>
       <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2161,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>41</v>
@@ -2175,7 +2165,7 @@
       <c r="A33" s="27"/>
       <c r="B33" s="33"/>
       <c r="C33" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="35" t="s">
@@ -2227,9 +2217,6 @@
         <v>37</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2250,14 +2237,12 @@
         <v>30</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>42</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D40" s="16"/>
       <c r="E40" s="32"/>
       <c r="F40" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2265,11 +2250,13 @@
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="31"/>
+      <c r="C41" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="D41" s="31"/>
       <c r="E41" s="35"/>
       <c r="F41" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
